--- a/story/Main Story and Others 主线剧情等/tutorial 教学关卡/level/main_06-15_c.xlsx
+++ b/story/Main Story and Others 主线剧情等/tutorial 教学关卡/level/main_06-15_c.xlsx
@@ -44,7 +44,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_frstar")] So this…
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_frstar")] So this...
 </t>
   </si>
   <si>
